--- a/pred_ohlcv/54_21/2020-01-16 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LUNA ohlcv.xlsx
@@ -12872,7 +12872,7 @@
         <v>-222233.8410709298</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-227696.4771709298</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-206078.1937709298</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-211168.7838709298</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-223082.9585709298</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-231684.3190709298</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-227197.7372709299</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-231311.4139709299</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-226412.1035709299</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-229004.9648709299</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-225354.6027709299</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-229008.2928709299</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-236881.0527709299</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-237706.1094709299</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-242978.0327709299</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-247106.3823709298</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-241493.6258709299</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-246755.0888709298</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-244656.6204709298</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-250156.0990709298</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-253354.8694709298</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-250057.5377709298</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-253033.6763709298</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-246427.6360709298</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-243212.7604709298</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-247429.5944709298</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-251480.7843709298</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-377854.9374998696</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-380257.9970998696</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-374821.8531998696</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-368755.3357998696</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-362300.6927998696</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-362300.6927998696</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-359942.4248998696</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-350807.9047998696</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-343639.5032424896</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-330304.1022424896</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-335470.3910424896</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-335470.3910424896</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-332016.0396424896</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-335686.5708424897</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-348363.3364424896</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-353147.5022424897</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-346955.4098424896</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-342017.0832424896</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-334114.9115424896</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-334111.0596424896</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-342147.5689424896</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-328464.9236424896</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-270083.3243096295</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-264319.4919096295</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-268307.6240096295</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-263719.4403096295</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-268012.1791096295</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-268012.1791096295</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-263051.6986096295</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-265935.1771096295</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-257451.2431096295</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-252016.2202096295</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-242607.9811096295</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-236881.6245096295</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-231024.4772096295</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-216514.9019381895</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-221671.6254381895</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-216640.0018381895</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-216640.0018381895</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-223887.3484381895</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-229891.8252381895</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-224627.8325381895</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-176316.0820381895</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-159182.9641381895</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-154446.3036381895</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-146789.1728381895</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-151492.4836381895</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>135010.5805618106</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>106392.1294618106</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>115278.8468618106</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>119736.7539618106</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>114975.9076618106</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>124142.4204618106</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>119147.8587618106</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>116258.3018618106</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>131144.0325618106</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>135605.1998618106</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>131871.0643618106</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>137546.6326618106</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>141057.3066618106</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>136299.4936618106</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>133699.1181618106</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>129032.1847618106</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>124450.0594618106</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>124450.0594618106</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>129040.8877535806</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>124774.0661535806</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>110630.9943535806</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>105570.4115535806</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>115480.4959535806</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>112632.9699535806</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>117190.6699535806</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>113498.9307535806</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>119969.5938535806</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LUNA ohlcv.xlsx
@@ -12872,7 +12872,7 @@
         <v>-222233.8410709298</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-227696.4771709298</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-206078.1937709298</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-211168.7838709298</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-223082.9585709298</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-231684.3190709298</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-227197.7372709299</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-231311.4139709299</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-226412.1035709299</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-229004.9648709299</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-225354.6027709299</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-229008.2928709299</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-236881.0527709299</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-237706.1094709299</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-242978.0327709299</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-247106.3823709298</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-241493.6258709299</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-246755.0888709298</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-244656.6204709298</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-250156.0990709298</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-253354.8694709298</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-250057.5377709298</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-253033.6763709298</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-246427.6360709298</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-243212.7604709298</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-247429.5944709298</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-251480.7843709298</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-376759.8913998696</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-370722.6450998696</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-374468.5214998696</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-374468.5214998696</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-342679.8997998696</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-349511.2128998696</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-342724.0143998696</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-348633.6747998696</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-343968.4162998696</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-346344.9813998696</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-338436.7451998696</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-343831.4024998696</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-343831.4024998696</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-349990.6576998697</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-359789.8988998696</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-352308.4081998696</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-347766.3634998696</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-343639.5032424896</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-330304.1022424896</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-335470.3910424896</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-335470.3910424896</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-332016.0396424896</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-335686.5708424897</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-348363.3364424896</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-353147.5022424897</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-346955.4098424896</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-342017.0832424896</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-334114.9115424896</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-329276.2793424896</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-333289.1971424896</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-336966.9913424896</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-336966.9913424896</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-342633.3794424896</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-342633.3794424896</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-339743.8604424896</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-333992.6840424896</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-333992.6840424896</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-333992.6840424896</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-339315.2853424896</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-342301.5261424896</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-338292.7371424896</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-335573.1013424897</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-341170.3669424896</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-341170.3669424896</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-335630.0577424896</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-335630.0577424896</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-339589.3584424896</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-339589.3584424896</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-339589.3584424896</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-345153.3561424896</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-340525.9025424896</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-334111.0596424896</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-342147.5689424896</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-328464.9236424896</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-332228.1211424896</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-332228.1211424896</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-344095.4931424896</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-340428.7824424896</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-351529.6959424896</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-348166.3025424896</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-346490.6377424896</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-358486.8844424896</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-354816.2564424896</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-365646.0220424896</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-360865.3315424895</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-413671.4936424895</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-409319.4436424896</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-405991.7713424896</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-405991.7713424896</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-399225.1743424896</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-270083.3243096295</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-264319.4919096295</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-268307.6240096295</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-263719.4403096295</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-268012.1791096295</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-268012.1791096295</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-263051.6986096295</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-265935.1771096295</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-257451.2431096295</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-252016.2202096295</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-242607.9811096295</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-236881.6245096295</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-231024.4772096295</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-216514.9019381895</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-221671.6254381895</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-216640.0018381895</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-216640.0018381895</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-223887.3484381895</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-229891.8252381895</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-224627.8325381895</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-176316.0820381895</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-159182.9641381895</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-154446.3036381895</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-146789.1728381895</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-151492.4836381895</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>1760.346661810579</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>51033.42786181057</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>47128.32256181057</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>53867.84926181057</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>49155.01646181058</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>41540.00026181058</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>35009.19676181058</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>42192.72506181058</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>24150.02626181058</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>24150.02626181058</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>27683.41076181058</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>28083.86336181058</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>141855.9681618106</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>135010.5805618106</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>131846.1177618106</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>106392.1294618106</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>115278.8468618106</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>119736.7539618106</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>114975.9076618106</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>124142.4204618106</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>119147.8587618106</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>116258.3018618106</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>131144.0325618106</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>135605.1998618106</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>131871.0643618106</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>137546.6326618106</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>141057.3066618106</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>136299.4936618106</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>133699.1181618106</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>124450.0594618106</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>129040.8877535806</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>124774.0661535806</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>110630.9943535806</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
